--- a/simulation/Conductivity24V_probe_sweep.xlsx
+++ b/simulation/Conductivity24V_probe_sweep.xlsx
@@ -75,6 +75,982 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DC_out [V]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>6.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.872</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.158</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="328459072"/>
+        <c:axId val="328458288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="328459072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328458288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="328458288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328459072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -367,7 +1343,7 @@
   <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,5 +1492,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/simulation/Conductivity24V_probe_sweep.xlsx
+++ b/simulation/Conductivity24V_probe_sweep.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24526"/>
+  <workbookPr filterPrivacy="1" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -29,10 +34,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -55,13 +76,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="15">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -120,7 +169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -155,7 +204,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,18 +413,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D18"/>
+  <dimension ref="B2:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -386,135 +435,269 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4">
       <c r="B3">
         <v>500</v>
       </c>
       <c r="C3">
         <v>6.91</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4">
         <v>600</v>
       </c>
       <c r="C4">
         <v>5.81</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5">
         <v>750</v>
       </c>
       <c r="C5">
         <v>4.67</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6">
         <v>900</v>
       </c>
       <c r="C6">
         <v>3.92</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7">
         <v>1100</v>
       </c>
       <c r="C7">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8">
         <v>1500</v>
       </c>
       <c r="C8">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9">
         <v>2000</v>
       </c>
       <c r="C9">
         <v>1.76</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10">
         <v>3000</v>
       </c>
       <c r="C10">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
       <c r="B11">
         <v>4000</v>
       </c>
       <c r="C11">
         <v>0.872</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
       <c r="B12">
         <v>5000</v>
       </c>
       <c r="C12">
         <v>0.69299999999999995</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
       <c r="B13">
         <v>7500</v>
       </c>
       <c r="C13">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
       <c r="B14">
         <v>10000</v>
       </c>
       <c r="C14">
         <v>0.33600000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
       <c r="B15">
         <v>15000</v>
       </c>
       <c r="C15">
         <v>0.217</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
       <c r="B16">
         <v>20000</v>
       </c>
       <c r="C16">
         <v>0.158</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17">
         <v>50000</v>
       </c>
       <c r="C17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18">
         <v>100000</v>
       </c>
       <c r="C18">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="D18">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51">
+        <v>100000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>